--- a/Docs/方块设计案.xlsx
+++ b/Docs/方块设计案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Unity\Unity Projects\NotRealElimination\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3191A1-28AA-46C1-B7F9-5509767F74A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2D125A-326E-4637-9B08-4ADD80C35EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="10060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="18800" windowWidth="19200" windowHeight="10060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tiles" sheetId="1" r:id="rId1"/>
@@ -950,7 +950,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Docs/方块设计案.xlsx
+++ b/Docs/方块设计案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Unity\Unity Projects\NotRealElimination\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2D125A-326E-4637-9B08-4ADD80C35EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A62D2E5-4061-47E3-A082-1FC7F5A7435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="18800" windowWidth="19200" windowHeight="10060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2980" yWindow="18420" windowWidth="19200" windowHeight="10060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tiles" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,14 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>obj1-equal-obj2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj1-is-obj2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单向替代</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rule</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>obj1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>conj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,22 +256,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>断路prop构造的赋值语句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>构造成not-prop时，逻辑上视为一个prop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>obj1-prep-obj2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj1-prep-obj2-is-obj2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本表内容参考https://babaiswiki.fandom.com/wiki/Category:Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>obj-not-prop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>swap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,6 +289,82 @@
   </si>
   <si>
     <t>潜在的死循环可能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not-prop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑取反</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prep-obj2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj-is-obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj-equal-obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj-cond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not方块具有右结合性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj-and-obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有conj词汇具有最高结合性，not结合性高于and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop-and-prop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cond-and-cond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func-and-func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not-obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -683,7 +727,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -818,7 +862,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -832,7 +876,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -840,13 +884,13 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -854,10 +898,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -865,66 +909,69 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -935,7 +982,7 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -947,100 +994,239 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBCFB9C-5C69-40B0-8784-94705DD57B9C}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
       <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>